--- a/data/trans_camb/P16A18-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P16A18-Dificultad-trans_camb.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 56 años que ha consumido anticonceptivos en las dos últimas semanas</t>
+          <t>Mujeres menores de 55 años que han consumido anticonceptivos en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P16A18-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P16A18-Dificultad-trans_camb.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.945598390098087</v>
+        <v>-1.521396868808502</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.080059998356916</v>
+        <v>-5.057972356026812</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-7.791478631104902</v>
+        <v>-7.808922329331808</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.633053839627026</v>
+        <v>4.833589646745691</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7492236063532659</v>
+        <v>0.6473770481936398</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-1.796799362797797</v>
+        <v>-1.418188871934932</v>
       </c>
     </row>
     <row r="7">
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1950839739686034</v>
+        <v>-0.1656336661652937</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.512895232133621</v>
+        <v>-0.5107843790104236</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.8234955883617789</v>
+        <v>-0.8251543897025597</v>
       </c>
     </row>
     <row r="9">
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.7587730193950416</v>
+        <v>0.7886324534184479</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1379645911165692</v>
+        <v>0.1155047192088142</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.1734906932885397</v>
+        <v>-0.1878456749169165</v>
       </c>
     </row>
     <row r="10">
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.34559338497938</v>
+        <v>-0.9914520042837198</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.490188628801866</v>
+        <v>-4.669454908322717</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-8.770041686995498</v>
+        <v>-8.871115184567424</v>
       </c>
     </row>
     <row r="12">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.707900154905141</v>
+        <v>4.739414743300143</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.10050762660531</v>
+        <v>1.007873935312226</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-4.200723067512372</v>
+        <v>-4.246068979397442</v>
       </c>
     </row>
     <row r="13">
@@ -758,13 +758,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.120818420025915</v>
+        <v>-0.1048192106369875</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4440074059619169</v>
+        <v>-0.4655914247292466</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.8454889197229271</v>
+        <v>-0.8538313828770074</v>
       </c>
     </row>
     <row r="15">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.637336422570719</v>
+        <v>0.623542856080224</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1596345389769932</v>
+        <v>0.1310912925092921</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.5478048539099448</v>
+        <v>-0.5528877067926841</v>
       </c>
     </row>
     <row r="16">
@@ -813,13 +813,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.918756732342427</v>
+        <v>-1.53268740494024</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.22467782124111</v>
+        <v>-4.147129855828859</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-8.224491136503705</v>
+        <v>-8.690252265559105</v>
       </c>
     </row>
     <row r="18">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.029230003787009</v>
+        <v>5.212673522119866</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.985862201528119</v>
+        <v>2.554214441247006</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-3.241979439182283</v>
+        <v>-3.263075983033794</v>
       </c>
     </row>
     <row r="19">
@@ -853,7 +853,7 @@
         <v>-0.1158754106021163</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.642599011761865</v>
+        <v>-0.6425990117618648</v>
       </c>
     </row>
     <row r="20">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1863324571475094</v>
+        <v>-0.1544444882206371</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4213010709530128</v>
+        <v>-0.4036454112141621</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.7974632807869217</v>
+        <v>-0.798168525714092</v>
       </c>
     </row>
     <row r="21">
@@ -881,13 +881,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.6495863962613729</v>
+        <v>0.7102783979579657</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2633353125855474</v>
+        <v>0.3471879528214631</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.4032765418747108</v>
+        <v>-0.4094146143163219</v>
       </c>
     </row>
     <row r="22">
@@ -919,13 +919,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-10.50026927880002</v>
+        <v>-10.61396815351558</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-11.95069334507132</v>
+        <v>-11.74742057394584</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-12.77056834597376</v>
+        <v>-12.43264149080234</v>
       </c>
     </row>
     <row r="24">
@@ -936,13 +936,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.5406244878923362</v>
+        <v>-0.8329856696255704</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-3.031749302002999</v>
+        <v>-2.995628208300452</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-4.701807435804074</v>
+        <v>-3.90735772408314</v>
       </c>
     </row>
     <row r="25">
@@ -970,13 +970,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.7199801318034588</v>
+        <v>-0.7258543580135545</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.8151445070773204</v>
+        <v>-0.8093765414261226</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.8583304058556832</v>
+        <v>-0.8462242294264224</v>
       </c>
     </row>
     <row r="27">
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.01877420465869005</v>
+        <v>-0.1113592769067581</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.3477719424519667</v>
+        <v>-0.3202469001621276</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.5187904658354939</v>
+        <v>-0.438673515432156</v>
       </c>
     </row>
     <row r="28">
@@ -1025,13 +1025,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.999948324066271</v>
+        <v>-1.0472862586165</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.170136899736722</v>
+        <v>-4.056904011959615</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-7.405246086231175</v>
+        <v>-7.450883451628274</v>
       </c>
     </row>
     <row r="30">
@@ -1042,13 +1042,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.354100371919939</v>
+        <v>2.338233800301693</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-1.061107973894795</v>
+        <v>-1.050718041748384</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-4.623936692708237</v>
+        <v>-4.731823394989117</v>
       </c>
     </row>
     <row r="31">
@@ -1076,13 +1076,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1078197925138517</v>
+        <v>-0.1052088706967236</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.4274177923832027</v>
+        <v>-0.4110888911789529</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.7597045290602891</v>
+        <v>-0.766078003535807</v>
       </c>
     </row>
     <row r="33">
@@ -1093,13 +1093,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.2857663973639284</v>
+        <v>0.2929085136413218</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.1311259326469079</v>
+        <v>-0.13350679894197</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.574539759564093</v>
+        <v>-0.5819841486105934</v>
       </c>
     </row>
     <row r="34">
